--- a/biology/Virologie/Et_maintenant_(film)/Et_maintenant_(film).xlsx
+++ b/biology/Virologie/Et_maintenant_(film)/Et_maintenant_(film).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Et maintenant (E Agora? Lembra-me) est un film portugais réalisé par Joaquim Pinto, sorti en 2013.
 Présenté en compétition au Festival international du film de Locarno 2013, il remporte le Prix spécial du jury ainsi que le Prix FIPRESCI.
@@ -512,7 +524,9 @@
           <t>Synopsis</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Joaquim, atteint du VIH et de l'hépatite C, participe à des essais cliniques.
 </t>
@@ -543,10 +557,12 @@
           <t>Fiche technique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Titre original : E Agora? Lembra-me
-Titre français : Et maintenant[1]
+Titre français : Et maintenant
 Réalisation : Joaquim Pinto
 Scénario : Joaquim Pinto
 Montage : Joaquim Pinto, Nuno Leonel
@@ -588,7 +604,9 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Joaquim Pinto
 Nuno Leonel</t>
@@ -619,7 +637,9 @@
           <t>Récompenses</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Festival de Locarno 2013
 Prix spécial du jury
